--- a/nmadb/501392.xlsx
+++ b/nmadb/501392.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="9585" yWindow="-15" windowWidth="9615" windowHeight="11715"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$131</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>n</t>
@@ -284,11 +281,14 @@
   <si>
     <t>Escorsell A</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -448,18 +448,7 @@
     <cellStyle name="常规 3 3" xfId="9"/>
     <cellStyle name="常规 4" xfId="10"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -470,7 +459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,7 +533,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -579,7 +567,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -755,14 +742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
@@ -788,19 +775,19 @@
         <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1">
@@ -839,10 +826,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1">
@@ -865,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="9">
         <v>1</v>
@@ -887,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="9">
         <v>2</v>
@@ -913,7 +900,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="9">
         <v>3</v>
@@ -935,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="9">
         <v>4</v>
@@ -961,7 +948,7 @@
         <v>36</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="9">
         <v>5</v>
@@ -983,7 +970,7 @@
         <v>34</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="9">
         <v>6</v>
@@ -1009,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="9">
         <v>7</v>
@@ -1031,7 +1018,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="9">
         <v>8</v>
@@ -1057,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="9">
         <v>9</v>
@@ -1079,7 +1066,7 @@
         <v>64</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="9">
         <v>10</v>
@@ -1105,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="9">
         <v>11</v>
@@ -1127,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="9">
         <v>12</v>
@@ -1375,7 +1362,7 @@
         <v>1991</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4">
         <v>14</v>
@@ -1628,7 +1615,7 @@
         <v>1996</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4">
         <v>21</v>
@@ -1916,7 +1903,7 @@
         <v>1998</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4">
         <v>29</v>
@@ -2276,7 +2263,7 @@
         <v>2002</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="4">
         <v>39</v>
@@ -3025,14 +3012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
@@ -3406,12 +3393,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
